--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slamf7-Slamf7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Slamf7-Slamf7.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.007936333333333333</v>
+        <v>0.6828303333333333</v>
       </c>
       <c r="H2">
-        <v>0.023809</v>
+        <v>2.048491</v>
       </c>
       <c r="I2">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597834</v>
       </c>
       <c r="J2">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597833</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.007936333333333333</v>
+        <v>0.6828303333333333</v>
       </c>
       <c r="N2">
-        <v>0.023809</v>
+        <v>2.048491</v>
       </c>
       <c r="O2">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597834</v>
       </c>
       <c r="P2">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597833</v>
       </c>
       <c r="Q2">
-        <v>6.298538677777778E-05</v>
+        <v>0.4662572641201111</v>
       </c>
       <c r="R2">
-        <v>0.000566868481</v>
+        <v>4.196315377081</v>
       </c>
       <c r="S2">
-        <v>1.040340882869418E-09</v>
+        <v>3.062175785964173E-05</v>
       </c>
       <c r="T2">
-        <v>1.040340882869418E-09</v>
+        <v>3.062175785964171E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.007936333333333333</v>
+        <v>0.6828303333333333</v>
       </c>
       <c r="H3">
-        <v>0.023809</v>
+        <v>2.048491</v>
       </c>
       <c r="I3">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597834</v>
       </c>
       <c r="J3">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597833</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>85.59437433333333</v>
+        <v>49.58860766666667</v>
       </c>
       <c r="N3">
-        <v>256.783123</v>
+        <v>148.765823</v>
       </c>
       <c r="O3">
-        <v>0.3478669377974553</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="P3">
-        <v>0.3478669377974552</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="Q3">
-        <v>0.6793054861674445</v>
+        <v>33.86060550256589</v>
       </c>
       <c r="R3">
-        <v>6.113749375507</v>
+        <v>304.745449523093</v>
       </c>
       <c r="S3">
-        <v>1.122021004190795E-05</v>
+        <v>0.002223817927292002</v>
       </c>
       <c r="T3">
-        <v>1.122021004190794E-05</v>
+        <v>0.002223817927292001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.007936333333333333</v>
+        <v>0.6828303333333333</v>
       </c>
       <c r="H4">
-        <v>0.023809</v>
+        <v>2.048491</v>
       </c>
       <c r="I4">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597834</v>
       </c>
       <c r="J4">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597833</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.329606</v>
+        <v>16.415838</v>
       </c>
       <c r="N4">
-        <v>60.98881799999999</v>
+        <v>49.247514</v>
       </c>
       <c r="O4">
-        <v>0.08262222652984215</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="P4">
-        <v>0.08262222652984214</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="Q4">
-        <v>0.1613425297513333</v>
+        <v>11.209232133486</v>
       </c>
       <c r="R4">
-        <v>1.452082767762</v>
+        <v>100.883089201374</v>
       </c>
       <c r="S4">
-        <v>2.664923380372223E-06</v>
+        <v>0.0007361738220462359</v>
       </c>
       <c r="T4">
-        <v>2.664923380372222E-06</v>
+        <v>0.0007361738220462358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.007936333333333333</v>
+        <v>0.6828303333333333</v>
       </c>
       <c r="H5">
-        <v>0.023809</v>
+        <v>2.048491</v>
       </c>
       <c r="I5">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597834</v>
       </c>
       <c r="J5">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597833</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>140.1230113333333</v>
+        <v>56.70777633333334</v>
       </c>
       <c r="N5">
-        <v>420.369034</v>
+        <v>170.123329</v>
       </c>
       <c r="O5">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="P5">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="Q5">
-        <v>1.112062925611778</v>
+        <v>38.72178981628211</v>
       </c>
       <c r="R5">
-        <v>10.008566330506</v>
+        <v>348.496108346539</v>
       </c>
       <c r="S5">
-        <v>1.836814196154918E-05</v>
+        <v>0.002543079460399955</v>
       </c>
       <c r="T5">
-        <v>1.836814196154918E-05</v>
+        <v>0.002543079460399955</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>85.59437433333333</v>
+        <v>49.58860766666667</v>
       </c>
       <c r="H6">
-        <v>256.783123</v>
+        <v>148.765823</v>
       </c>
       <c r="I6">
-        <v>0.3478669377974553</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="J6">
-        <v>0.3478669377974552</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -800,28 +800,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.007936333333333333</v>
+        <v>0.6828303333333333</v>
       </c>
       <c r="N6">
-        <v>0.023809</v>
+        <v>2.048491</v>
       </c>
       <c r="O6">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597834</v>
       </c>
       <c r="P6">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597833</v>
       </c>
       <c r="Q6">
-        <v>0.6793054861674445</v>
+        <v>33.86060550256589</v>
       </c>
       <c r="R6">
-        <v>6.113749375507</v>
+        <v>304.745449523093</v>
       </c>
       <c r="S6">
-        <v>1.122021004190795E-05</v>
+        <v>0.002223817927292002</v>
       </c>
       <c r="T6">
-        <v>1.122021004190794E-05</v>
+        <v>0.002223817927292001</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>85.59437433333333</v>
+        <v>49.58860766666667</v>
       </c>
       <c r="H7">
-        <v>256.783123</v>
+        <v>148.765823</v>
       </c>
       <c r="I7">
-        <v>0.3478669377974553</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="J7">
-        <v>0.3478669377974552</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>85.59437433333333</v>
+        <v>49.58860766666667</v>
       </c>
       <c r="N7">
-        <v>256.783123</v>
+        <v>148.765823</v>
       </c>
       <c r="O7">
-        <v>0.3478669377974553</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="P7">
-        <v>0.3478669377974552</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="Q7">
-        <v>7326.396917514792</v>
+        <v>2459.030010318592</v>
       </c>
       <c r="R7">
-        <v>65937.57225763312</v>
+        <v>22131.27009286733</v>
       </c>
       <c r="S7">
-        <v>0.1210114064125786</v>
+        <v>0.1614984416117761</v>
       </c>
       <c r="T7">
-        <v>0.1210114064125786</v>
+        <v>0.1614984416117761</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>85.59437433333333</v>
+        <v>49.58860766666667</v>
       </c>
       <c r="H8">
-        <v>256.783123</v>
+        <v>148.765823</v>
       </c>
       <c r="I8">
-        <v>0.3478669377974553</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="J8">
-        <v>0.3478669377974552</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.329606</v>
+        <v>16.415838</v>
       </c>
       <c r="N8">
-        <v>60.98881799999999</v>
+        <v>49.247514</v>
       </c>
       <c r="O8">
-        <v>0.08262222652984215</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="P8">
-        <v>0.08262222652984214</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="Q8">
-        <v>1740.099906013179</v>
+        <v>814.038550101558</v>
       </c>
       <c r="R8">
-        <v>15660.89915411861</v>
+        <v>7326.346950914023</v>
       </c>
       <c r="S8">
-        <v>0.02874154093694386</v>
+        <v>0.05346252656602535</v>
       </c>
       <c r="T8">
-        <v>0.02874154093694385</v>
+        <v>0.05346252656602535</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>85.59437433333333</v>
+        <v>49.58860766666667</v>
       </c>
       <c r="H9">
-        <v>256.783123</v>
+        <v>148.765823</v>
       </c>
       <c r="I9">
-        <v>0.3478669377974553</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="J9">
-        <v>0.3478669377974552</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>140.1230113333333</v>
+        <v>56.70777633333334</v>
       </c>
       <c r="N9">
-        <v>420.369034</v>
+        <v>170.123329</v>
       </c>
       <c r="O9">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="P9">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="Q9">
-        <v>11993.74148477924</v>
+        <v>2812.059672242752</v>
       </c>
       <c r="R9">
-        <v>107943.6733630132</v>
+        <v>25308.53705018477</v>
       </c>
       <c r="S9">
-        <v>0.1981027702378909</v>
+        <v>0.1846839009206266</v>
       </c>
       <c r="T9">
-        <v>0.1981027702378908</v>
+        <v>0.1846839009206266</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.329606</v>
+        <v>16.415838</v>
       </c>
       <c r="H10">
-        <v>60.98881799999999</v>
+        <v>49.247514</v>
       </c>
       <c r="I10">
-        <v>0.08262222652984215</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="J10">
-        <v>0.08262222652984214</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1048,28 +1048,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.007936333333333333</v>
+        <v>0.6828303333333333</v>
       </c>
       <c r="N10">
-        <v>0.023809</v>
+        <v>2.048491</v>
       </c>
       <c r="O10">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597834</v>
       </c>
       <c r="P10">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597833</v>
       </c>
       <c r="Q10">
-        <v>0.1613425297513333</v>
+        <v>11.209232133486</v>
       </c>
       <c r="R10">
-        <v>1.452082767762</v>
+        <v>100.883089201374</v>
       </c>
       <c r="S10">
-        <v>2.664923380372223E-06</v>
+        <v>0.0007361738220462359</v>
       </c>
       <c r="T10">
-        <v>2.664923380372222E-06</v>
+        <v>0.0007361738220462358</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>20.329606</v>
+        <v>16.415838</v>
       </c>
       <c r="H11">
-        <v>60.98881799999999</v>
+        <v>49.247514</v>
       </c>
       <c r="I11">
-        <v>0.08262222652984215</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="J11">
-        <v>0.08262222652984214</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1110,28 +1110,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>85.59437433333333</v>
+        <v>49.58860766666667</v>
       </c>
       <c r="N11">
-        <v>256.783123</v>
+        <v>148.765823</v>
       </c>
       <c r="O11">
-        <v>0.3478669377974553</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="P11">
-        <v>0.3478669377974552</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="Q11">
-        <v>1740.099906013179</v>
+        <v>814.038550101558</v>
       </c>
       <c r="R11">
-        <v>15660.89915411861</v>
+        <v>7326.346950914023</v>
       </c>
       <c r="S11">
-        <v>0.02874154093694386</v>
+        <v>0.05346252656602535</v>
       </c>
       <c r="T11">
-        <v>0.02874154093694385</v>
+        <v>0.05346252656602535</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>20.329606</v>
+        <v>16.415838</v>
       </c>
       <c r="H12">
-        <v>60.98881799999999</v>
+        <v>49.247514</v>
       </c>
       <c r="I12">
-        <v>0.08262222652984215</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="J12">
-        <v>0.08262222652984214</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.329606</v>
+        <v>16.415838</v>
       </c>
       <c r="N12">
-        <v>60.98881799999999</v>
+        <v>49.247514</v>
       </c>
       <c r="O12">
-        <v>0.08262222652984215</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="P12">
-        <v>0.08262222652984214</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="Q12">
-        <v>413.2928801152359</v>
+        <v>269.479737242244</v>
       </c>
       <c r="R12">
-        <v>3719.635921037123</v>
+        <v>2425.317635180196</v>
       </c>
       <c r="S12">
-        <v>0.006826432316748552</v>
+        <v>0.01769826209031698</v>
       </c>
       <c r="T12">
-        <v>0.00682643231674855</v>
+        <v>0.01769826209031698</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>20.329606</v>
+        <v>16.415838</v>
       </c>
       <c r="H13">
-        <v>60.98881799999999</v>
+        <v>49.247514</v>
       </c>
       <c r="I13">
-        <v>0.08262222652984215</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="J13">
-        <v>0.08262222652984214</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1234,28 +1234,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>140.1230113333333</v>
+        <v>56.70777633333334</v>
       </c>
       <c r="N13">
-        <v>420.369034</v>
+        <v>170.123329</v>
       </c>
       <c r="O13">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="P13">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="Q13">
-        <v>2848.645611940201</v>
+        <v>930.905669628234</v>
       </c>
       <c r="R13">
-        <v>25637.81050746181</v>
+        <v>8378.151026654106</v>
       </c>
       <c r="S13">
-        <v>0.04705158835276936</v>
+        <v>0.06113785285322671</v>
       </c>
       <c r="T13">
-        <v>0.04705158835276935</v>
+        <v>0.06113785285322671</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>140.1230113333333</v>
+        <v>56.70777633333334</v>
       </c>
       <c r="H14">
-        <v>420.369034</v>
+        <v>170.123329</v>
       </c>
       <c r="I14">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="J14">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1296,28 +1296,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.007936333333333333</v>
+        <v>0.6828303333333333</v>
       </c>
       <c r="N14">
-        <v>0.023809</v>
+        <v>2.048491</v>
       </c>
       <c r="O14">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597834</v>
       </c>
       <c r="P14">
-        <v>3.225431572471222E-05</v>
+        <v>0.005533692967597833</v>
       </c>
       <c r="Q14">
-        <v>1.112062925611778</v>
+        <v>38.72178981628211</v>
       </c>
       <c r="R14">
-        <v>10.008566330506</v>
+        <v>348.496108346539</v>
       </c>
       <c r="S14">
-        <v>1.836814196154918E-05</v>
+        <v>0.002543079460399955</v>
       </c>
       <c r="T14">
-        <v>1.836814196154918E-05</v>
+        <v>0.002543079460399955</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>140.1230113333333</v>
+        <v>56.70777633333334</v>
       </c>
       <c r="H15">
-        <v>420.369034</v>
+        <v>170.123329</v>
       </c>
       <c r="I15">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="J15">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1358,28 +1358,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>85.59437433333333</v>
+        <v>49.58860766666667</v>
       </c>
       <c r="N15">
-        <v>256.783123</v>
+        <v>148.765823</v>
       </c>
       <c r="O15">
-        <v>0.3478669377974553</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="P15">
-        <v>0.3478669377974552</v>
+        <v>0.40186868702572</v>
       </c>
       <c r="Q15">
-        <v>11993.74148477924</v>
+        <v>2812.059672242752</v>
       </c>
       <c r="R15">
-        <v>107943.6733630132</v>
+        <v>25308.53705018477</v>
       </c>
       <c r="S15">
-        <v>0.1981027702378909</v>
+        <v>0.1846839009206266</v>
       </c>
       <c r="T15">
-        <v>0.1981027702378908</v>
+        <v>0.1846839009206266</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>140.1230113333333</v>
+        <v>56.70777633333334</v>
       </c>
       <c r="H16">
-        <v>420.369034</v>
+        <v>170.123329</v>
       </c>
       <c r="I16">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="J16">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.329606</v>
+        <v>16.415838</v>
       </c>
       <c r="N16">
-        <v>60.98881799999999</v>
+        <v>49.247514</v>
       </c>
       <c r="O16">
-        <v>0.08262222652984215</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="P16">
-        <v>0.08262222652984214</v>
+        <v>0.1330348153316153</v>
       </c>
       <c r="Q16">
-        <v>2848.645611940201</v>
+        <v>930.905669628234</v>
       </c>
       <c r="R16">
-        <v>25637.81050746181</v>
+        <v>8378.151026654106</v>
       </c>
       <c r="S16">
-        <v>0.04705158835276936</v>
+        <v>0.06113785285322671</v>
       </c>
       <c r="T16">
-        <v>0.04705158835276935</v>
+        <v>0.06113785285322671</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>140.1230113333333</v>
+        <v>56.70777633333334</v>
       </c>
       <c r="H17">
-        <v>420.369034</v>
+        <v>170.123329</v>
       </c>
       <c r="I17">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="J17">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1482,28 +1482,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>140.1230113333333</v>
+        <v>56.70777633333334</v>
       </c>
       <c r="N17">
-        <v>420.369034</v>
+        <v>170.123329</v>
       </c>
       <c r="O17">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="P17">
-        <v>0.5694785813569778</v>
+        <v>0.459562804675067</v>
       </c>
       <c r="Q17">
-        <v>19634.45830512146</v>
+        <v>3215.771896671361</v>
       </c>
       <c r="R17">
-        <v>176710.1247460931</v>
+        <v>28941.94707004225</v>
       </c>
       <c r="S17">
-        <v>0.324305854624356</v>
+        <v>0.2111979714408138</v>
       </c>
       <c r="T17">
-        <v>0.324305854624356</v>
+        <v>0.2111979714408138</v>
       </c>
     </row>
   </sheetData>
